--- a/Documents/Suika.Watermelon/SYC.xlsx
+++ b/Documents/Suika.Watermelon/SYC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1-414\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1-414\Documents\GitHub\SSC_WM_Project\Documents\Suika.Watermelon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>체리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>복숭아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레모네이드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -411,17 +407,17 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -501,17 +497,17 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
